--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alist\Desktop\Source\CSAM-CD-Simulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AppDev\Github\CSAM-CD-Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22500" windowHeight="10928"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22500" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,6 +450,8 @@
         <c:axId val="1892496432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -568,6 +570,7 @@
         <c:axId val="1892498096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1115,6 +1118,8 @@
         <c:axId val="1892496432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1468,7 +1473,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Efficiency for Persistent CSMA/CD Simulation</a:t>
+              <a:t>Efficiency for Non-Persistent CSMA/CD Simulation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1789,6 +1794,8 @@
         <c:axId val="1892496432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1907,6 +1914,7 @@
         <c:axId val="1892498096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2142,7 +2150,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> of Persistent CSMA/CD Simulation</a:t>
+              <a:t> of Non-Persistent CSMA/CD Simulation</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -2454,6 +2462,8 @@
         <c:axId val="1892496432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2576,6 +2586,7 @@
         <c:axId val="1892498096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5064,14 +5075,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>912021</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5392,24 +5403,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5417,7 +5428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5443,7 +5454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -5475,7 +5486,7 @@
         <v>0.59902100000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -5507,7 +5518,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
@@ -5539,7 +5550,7 @@
         <v>1.7499099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80</v>
       </c>
@@ -5571,7 +5582,7 @@
         <v>2.3048500000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -5603,12 +5614,12 @@
         <v>2.8134099999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -5616,7 +5627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -5642,7 +5653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -5674,7 +5685,7 @@
         <v>0.59932399999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
@@ -5706,7 +5717,7 @@
         <v>1.18913</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>60</v>
       </c>
@@ -5738,7 +5749,7 @@
         <v>1.7597699999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>80</v>
       </c>
@@ -5770,7 +5781,7 @@
         <v>2.3184999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>100</v>
       </c>
